--- a/exels/1_1403410200-2472100400 2.htm.xlsx
+++ b/exels/1_1403410200-2472100400 2.htm.xlsx
@@ -941,7 +941,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2_header_</v>
+        <v>5_header_</v>
       </c>
       <c r="B13" t="str">
         <v> </v>
@@ -984,7 +984,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14" t="str">
         <v> </v>
